--- a/data/trans_dic/P1803_2016_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1803_2016_2023-Dificultad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0287671310136814</v>
+        <v>0.02891488638773121</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05287087011859884</v>
+        <v>0.05324200432212337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03483405590159108</v>
+        <v>0.03611619964215858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06878359381083254</v>
+        <v>0.06689978948509911</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03514075372451152</v>
+        <v>0.03506280644987162</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06553185386418993</v>
+        <v>0.06592708186424269</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05282670335450999</v>
+        <v>0.05308209768919873</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1082182129494114</v>
+        <v>0.102958485688748</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05984716978566365</v>
+        <v>0.0600126759930073</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1039352051127123</v>
+        <v>0.1017525834400221</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05181760091762749</v>
+        <v>0.05214699280043582</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09659878285510728</v>
+        <v>0.0995159958974652</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.05022268745379934</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.060221966396156</v>
+        <v>0.06022196639615599</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02746088526669287</v>
+        <v>0.02800397123759225</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03236296863769555</v>
+        <v>0.03187226689931098</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0469209969044171</v>
+        <v>0.04766137166958119</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06069533969017051</v>
+        <v>0.06205602054007522</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04018338802600457</v>
+        <v>0.03978127042168832</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05116895230580411</v>
+        <v>0.05085264495608597</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05469920204752841</v>
+        <v>0.05399521474418538</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06065724908426193</v>
+        <v>0.06083737146531301</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07789265082636952</v>
+        <v>0.0798108353535284</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08758176444613912</v>
+        <v>0.08796895064494277</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06146579312789924</v>
+        <v>0.06182373843187976</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07068398907532969</v>
+        <v>0.07000029930706383</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.04994815866833401</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.09191996630272474</v>
+        <v>0.09191996630272473</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.05399879119344333</v>
@@ -788,7 +788,7 @@
         <v>0.05190654856291637</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.09839438445726646</v>
+        <v>0.09839438445726649</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03513219171214291</v>
+        <v>0.03532324937578877</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0735068325336205</v>
+        <v>0.07499206954255194</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03842852727673671</v>
+        <v>0.03841593503618059</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08996616460689891</v>
+        <v>0.08966316763828566</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04118243883637839</v>
+        <v>0.04127928904135556</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08696747403662429</v>
+        <v>0.0859304256506488</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06791089658626484</v>
+        <v>0.06876706714635891</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.113503832485964</v>
+        <v>0.1143468287123408</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07253237287192774</v>
+        <v>0.07230139171501834</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1237735877053665</v>
+        <v>0.1198286921242839</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06464398887660369</v>
+        <v>0.06494168348422089</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1125521787379707</v>
+        <v>0.1127043832903354</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04485650335158851</v>
+        <v>0.0485912877147673</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08181144013968179</v>
+        <v>0.0814991216098933</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04977663333213751</v>
+        <v>0.04901089068570925</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1150034084674996</v>
+        <v>0.1133272568082834</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05285558166842364</v>
+        <v>0.05283976772284916</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1021081287668561</v>
+        <v>0.1046606424086094</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09139557724897075</v>
+        <v>0.09058091680943137</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1260714088920067</v>
+        <v>0.1256522869264871</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09614841762989633</v>
+        <v>0.09527758183317013</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1564954975339241</v>
+        <v>0.1543837394627451</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08469725168530927</v>
+        <v>0.08815550229926652</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1337797705572006</v>
+        <v>0.1350482429617953</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.0461811405088509</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.07991550580503046</v>
+        <v>0.07991550580503048</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.05518960456285508</v>
@@ -952,7 +952,7 @@
         <v>0.05078958819404629</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.08977609713903537</v>
+        <v>0.08977609713903539</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03891565076660766</v>
+        <v>0.0391502103502979</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07023002828831937</v>
+        <v>0.06967032657053074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04745168817336388</v>
+        <v>0.04675109618424863</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09021075458630992</v>
+        <v>0.09142392930458394</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04571700489854136</v>
+        <v>0.04582744403361573</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08327313846184864</v>
+        <v>0.08319336014296193</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05376482047058904</v>
+        <v>0.05484202741655927</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08993243853426847</v>
+        <v>0.08922880418407737</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06362222356713329</v>
+        <v>0.0628183150334838</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1072336564711518</v>
+        <v>0.1090626970892787</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05651847030445136</v>
+        <v>0.05612519000878648</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09646666439705039</v>
+        <v>0.09652336535380848</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32449</v>
+        <v>32616</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26369</v>
+        <v>26554</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>43876</v>
+        <v>45491</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>42892</v>
+        <v>41717</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>83901</v>
+        <v>83714</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>73548</v>
+        <v>73991</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>59588</v>
+        <v>59876</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>53973</v>
+        <v>51349</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>75381</v>
+        <v>75590</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>64812</v>
+        <v>63451</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>123718</v>
+        <v>124504</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>108415</v>
+        <v>111689</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24957</v>
+        <v>25451</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>31073</v>
+        <v>30602</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>47225</v>
+        <v>47970</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>67727</v>
+        <v>69245</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>76963</v>
+        <v>76193</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>106226</v>
+        <v>105569</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>49712</v>
+        <v>49072</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>58239</v>
+        <v>58412</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>78397</v>
+        <v>80328</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>97728</v>
+        <v>98160</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>117725</v>
+        <v>118411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>146739</v>
+        <v>145320</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>28940</v>
+        <v>29098</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>76923</v>
+        <v>78478</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>29631</v>
+        <v>29621</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>94252</v>
+        <v>93935</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>65678</v>
+        <v>65833</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>182120</v>
+        <v>179949</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>55942</v>
+        <v>56647</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>118779</v>
+        <v>119662</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>55927</v>
+        <v>55749</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>129670</v>
+        <v>125538</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>103095</v>
+        <v>103570</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>235698</v>
+        <v>236017</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22729</v>
+        <v>24621</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>79842</v>
+        <v>79537</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>24376</v>
+        <v>24001</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>104497</v>
+        <v>102974</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>52665</v>
+        <v>52649</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>192430</v>
+        <v>197240</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>46310</v>
+        <v>45897</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>123037</v>
+        <v>122628</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47084</v>
+        <v>46657</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>142198</v>
+        <v>140280</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>84392</v>
+        <v>87838</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>252117</v>
+        <v>254508</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>131040</v>
+        <v>131830</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>244491</v>
+        <v>242542</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>167352</v>
+        <v>164881</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>333393</v>
+        <v>337877</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>315176</v>
+        <v>315938</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>597651</v>
+        <v>597079</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>181041</v>
+        <v>184669</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>313080</v>
+        <v>310631</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>224382</v>
+        <v>221547</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>396305</v>
+        <v>403064</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>389643</v>
+        <v>386931</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>692341</v>
+        <v>692748</v>
       </c>
     </row>
     <row r="24">
